--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2879.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2879.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.204172977624375</v>
+        <v>2.456557750701904</v>
       </c>
       <c r="B1">
-        <v>1.950371861236227</v>
+        <v>2.768770217895508</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.976203203201294</v>
       </c>
       <c r="D1">
-        <v>1.963770689100429</v>
+        <v>3.088655471801758</v>
       </c>
       <c r="E1">
-        <v>1.204021234140098</v>
+        <v>0.8025214672088623</v>
       </c>
     </row>
   </sheetData>
